--- a/story_eval/tables/human_study_strategy_scores_w_notes.xlsx
+++ b/story_eval/tables/human_study_strategy_scores_w_notes.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabri\Documents\GitHub\llm-psych-depth\story_eval\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D5814F1-C1BB-40D8-AE62-8F50D8861238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA6F5FC-AEF9-44C4-9B5F-FD420D917285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="human_study_strategy_scores" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>model_short</t>
   </si>
@@ -70,17 +83,24 @@
     <t>NOTES</t>
   </si>
   <si>
-    <t xml:space="preserve">plan_write lead to modest improvements to narrative complexity, but often at the expense of human likeness and engagement. </t>
-  </si>
-  <si>
     <t xml:space="preserve">For gpt4 specifically, plan_write was especially harmful to engagement and human likeness. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">plan_write leads to modest improvements to narrative complexity, but often at the expense of human likeness and engagement. </t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Differences
+ in Ratings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +231,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -557,11 +585,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -916,11 +951,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -984,7 +1019,7 @@
         <v>3.7</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -1013,7 +1048,7 @@
         <v>4.08</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -1225,6 +1260,12 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
       <c r="C13" s="1">
         <f>C3-C2</f>
         <v>-0.11000000000000032</v>
@@ -1251,6 +1292,10 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
       <c r="C14" s="1">
         <f>C5-C4</f>
         <v>8.8888888888889905E-2</v>
@@ -1277,19 +1322,23 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
       <c r="C15" s="2">
         <f>C7-C6</f>
         <v>-0.35555555555554985</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <f t="shared" ref="D15:H15" si="2">D7-D6</f>
         <v>-0.24444444444444979</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="1">
         <f>E7-E6</f>
         <v>-0.15555555555555012</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <f t="shared" si="2"/>
         <v>-0.24444444444444002</v>
       </c>
@@ -1303,6 +1352,10 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
       <c r="C16" s="1">
         <f>C9-C8</f>
         <v>0.17777777777777981</v>
@@ -1328,7 +1381,11 @@
         <v>-0.24000000000000021</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
       <c r="C17" s="1">
         <f>C11-C10</f>
         <v>-0.11388888888889026</v>
@@ -1354,33 +1411,40 @@
         <v>0.39722222222221992</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C18" s="1">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="5">
         <f>AVERAGE(C13:C17)</f>
         <v>-6.2555555555554143E-2</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="5">
         <f t="shared" ref="D18:H18" si="5">AVERAGE(D13:D17)</f>
         <v>-8.7888888888889835E-2</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="5">
         <f t="shared" si="5"/>
         <v>0.17988888888889187</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="5">
         <f t="shared" si="5"/>
         <v>-0.12477777777777596</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="5">
         <f t="shared" si="5"/>
         <v>-0.19244444444444397</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="5">
         <f t="shared" si="5"/>
         <v>0.187444444444444</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A13:A18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/story_eval/tables/human_study_strategy_scores_w_notes.xlsx
+++ b/story_eval/tables/human_study_strategy_scores_w_notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabri\Documents\GitHub\llm-psych-depth\story_eval\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA6F5FC-AEF9-44C4-9B5F-FD420D917285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E44D8DA-A490-4409-B00E-E71243527B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="21470" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="human_study_strategy_scores" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>model_short</t>
   </si>
@@ -81,12 +81,6 @@
   </si>
   <si>
     <t>NOTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For gpt4 specifically, plan_write was especially harmful to engagement and human likeness. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">plan_write leads to modest improvements to narrative complexity, but often at the expense of human likeness and engagement. </t>
   </si>
   <si>
     <t>Average</t>
@@ -94,6 +88,15 @@
   <si>
     <t>Differences
  in Ratings</t>
+  </si>
+  <si>
+    <t>On average, plan_write leads to modest improvements to narrative complexity (+0.19), but often at the expense of human likeness (-0.19) and engagement (-0.18). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For gpt4 specifically, plan_write was especially harmful to engagement (-0.62) and human likeness (-0.38). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall, no clear trends exist across all models or components of psychological depth to determine a winner between prompting strategies. </t>
   </si>
 </sst>
 </file>
@@ -955,7 +958,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1019,7 +1022,7 @@
         <v>3.7</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -1048,7 +1051,7 @@
         <v>4.08</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -1076,6 +1079,9 @@
       <c r="H4" s="1">
         <v>2.2888888888888799</v>
       </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -1261,7 +1267,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1414,7 +1420,7 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" s="5">
         <f>AVERAGE(C13:C17)</f>

--- a/story_eval/tables/human_study_strategy_scores_w_notes.xlsx
+++ b/story_eval/tables/human_study_strategy_scores_w_notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabri\Documents\GitHub\llm-psych-depth\story_eval\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E44D8DA-A490-4409-B00E-E71243527B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462ED9D7-0E01-4B09-881A-4BD86970A755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="21470" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="10710" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="human_study_strategy_scores" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
   <si>
     <t>model_short</t>
   </si>
@@ -97,6 +97,13 @@
   </si>
   <si>
     <t xml:space="preserve">Overall, no clear trends exist across all models or components of psychological depth to determine a winner between prompting strategies. </t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Differences
+ in Ratings (%)</t>
   </si>
 </sst>
 </file>
@@ -591,7 +598,6 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -600,6 +606,7 @@
     </xf>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -955,16 +962,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -1265,54 +1273,77 @@
         <v>2.62222222222222</v>
       </c>
     </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="1">
-        <f>C3-C2</f>
-        <v>-0.11000000000000032</v>
+        <f>C2-C3</f>
+        <v>0.11000000000000032</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13:H13" si="0">D3-D2</f>
-        <v>0.14000000000000012</v>
-      </c>
-      <c r="E13" s="2">
+        <f t="shared" ref="D13:H13" si="0">D2-D3</f>
+        <v>-0.14000000000000012</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>0.61999999999999966</v>
+        <v>-0.61999999999999966</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>-2.9999999999999805E-2</v>
+        <v>2.9999999999999805E-2</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>4.4999999999999929E-2</v>
-      </c>
-      <c r="H13" s="2">
+        <v>-4.4999999999999929E-2</v>
+      </c>
+      <c r="H13" s="1">
         <f t="shared" si="0"/>
-        <v>0.37999999999999989</v>
+        <v>-0.37999999999999989</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
+      <c r="A14" s="3"/>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="1">
-        <f>C5-C4</f>
-        <v>8.8888888888889905E-2</v>
+        <f>C4-C5</f>
+        <v>-8.8888888888889905E-2</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" ref="D14:H14" si="1">D5-D4</f>
+        <f t="shared" ref="D14:H14" si="1">D4-D5</f>
         <v>0</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>0.26666666666666972</v>
+        <v>-0.26666666666666972</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
@@ -1320,136 +1351,366 @@
       </c>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
-        <v>6.6666666666660213E-2</v>
+        <v>-6.6666666666660213E-2</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="1"/>
-        <v>0.22222222222223031</v>
+        <v>-0.22222222222223031</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
+      <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2">
-        <f>C7-C6</f>
-        <v>-0.35555555555554985</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" ref="D15:H15" si="2">D7-D6</f>
-        <v>-0.24444444444444979</v>
-      </c>
-      <c r="E15" s="1">
-        <f>E7-E6</f>
-        <v>-0.15555555555555012</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="C15" s="6">
+        <f>C6-C7</f>
+        <v>0.35555555555554985</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" ref="D15:H15" si="2">D6-D7</f>
+        <v>0.24444444444444979</v>
+      </c>
+      <c r="E15" s="6">
         <f t="shared" si="2"/>
-        <v>-0.24444444444444002</v>
-      </c>
-      <c r="G15" s="2">
-        <f>G7-G6</f>
-        <v>-0.44444444444443976</v>
-      </c>
-      <c r="H15" s="2">
+        <v>0.15555555555555012</v>
+      </c>
+      <c r="F15" s="6">
         <f t="shared" si="2"/>
-        <v>0.17777777777777004</v>
+        <v>0.24444444444444002</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="2"/>
+        <v>0.44444444444443976</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.17777777777777004</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
+      <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="1">
-        <f>C9-C8</f>
-        <v>0.17777777777777981</v>
+        <f>C8-C9</f>
+        <v>-0.17777777777777981</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" ref="D16:H16" si="3">D9-D8</f>
-        <v>-0.17111111111110988</v>
+        <f t="shared" ref="D16:H16" si="3">D8-D9</f>
+        <v>0.17111111111110988</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="3"/>
-        <v>0.19333333333334002</v>
-      </c>
-      <c r="F16" s="2">
+        <v>-0.19333333333334002</v>
+      </c>
+      <c r="F16" s="1">
         <f t="shared" si="3"/>
-        <v>-0.46888888888888003</v>
-      </c>
-      <c r="G16" s="2">
+        <v>0.46888888888888003</v>
+      </c>
+      <c r="G16" s="1">
         <f t="shared" si="3"/>
-        <v>-0.30444444444444008</v>
+        <v>0.30444444444444008</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="3"/>
-        <v>-0.24000000000000021</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
+        <v>0.24000000000000021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="1">
-        <f>C11-C10</f>
-        <v>-0.11388888888889026</v>
+        <f>C10-C11</f>
+        <v>0.11388888888889026</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" ref="D17:H17" si="4">D11-D10</f>
-        <v>-0.16388888888888964</v>
+        <f t="shared" ref="D17:H17" si="4">D10-D11</f>
+        <v>0.16388888888888964</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="4"/>
-        <v>-2.4999999999999911E-2</v>
+        <v>2.4999999999999911E-2</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="4"/>
-        <v>0.11944444444444002</v>
-      </c>
-      <c r="G17" s="2">
+        <v>-0.11944444444444002</v>
+      </c>
+      <c r="G17" s="1">
         <f t="shared" si="4"/>
-        <v>-0.32500000000000018</v>
+        <v>0.32500000000000018</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="4"/>
-        <v>0.39722222222221992</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="6" t="s">
+        <v>-0.39722222222221992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <f>AVERAGE(C13:C17)</f>
-        <v>-6.2555555555554143E-2</v>
-      </c>
-      <c r="D18" s="5">
+        <v>6.2555555555554143E-2</v>
+      </c>
+      <c r="D18" s="4">
         <f t="shared" ref="D18:H18" si="5">AVERAGE(D13:D17)</f>
-        <v>-8.7888888888889835E-2</v>
-      </c>
-      <c r="E18" s="5">
+        <v>8.7888888888889835E-2</v>
+      </c>
+      <c r="E18" s="4">
+        <f>AVERAGE(E13:E17)</f>
+        <v>-0.17988888888889187</v>
+      </c>
+      <c r="F18" s="4">
         <f t="shared" si="5"/>
-        <v>0.17988888888889187</v>
-      </c>
-      <c r="F18" s="5">
+        <v>0.12477777777777596</v>
+      </c>
+      <c r="G18" s="4">
         <f t="shared" si="5"/>
-        <v>-0.12477777777777596</v>
-      </c>
-      <c r="G18" s="5">
+        <v>0.19244444444444397</v>
+      </c>
+      <c r="H18" s="4">
         <f t="shared" si="5"/>
-        <v>-0.19244444444444397</v>
-      </c>
-      <c r="H18" s="5">
-        <f t="shared" si="5"/>
-        <v>0.187444444444444</v>
+        <v>-0.187444444444444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1">
+        <f>C13/4</f>
+        <v>2.750000000000008E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" ref="D20:H20" si="6">D13/4</f>
+        <v>-3.5000000000000031E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.15499999999999992</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="6"/>
+        <v>7.4999999999999512E-3</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="6"/>
+        <v>-1.1249999999999982E-2</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="6"/>
+        <v>-9.4999999999999973E-2</v>
+      </c>
+      <c r="I20" s="1">
+        <f>AVERAGE(C20:G20)</f>
+        <v>-3.3249999999999981E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" ref="C21:H24" si="7">C14/4</f>
+        <v>-2.2222222222222476E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="7"/>
+        <v>-6.6666666666667429E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.6666666666665053E-2</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="7"/>
+        <v>-5.5555555555557579E-2</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" ref="I21:I24" si="8">AVERAGE(C21:G21)</f>
+        <v>-2.111111111111099E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="7"/>
+        <v>8.8888888888887463E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="7"/>
+        <v>6.1111111111112448E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="7"/>
+        <v>3.8888888888887529E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="7"/>
+        <v>6.1111111111110006E-2</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="7"/>
+        <v>0.11111111111110994</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="7"/>
+        <v>-4.444444444444251E-2</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="8"/>
+        <v>7.222222222222148E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="7"/>
+        <v>-4.4444444444444953E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="7"/>
+        <v>4.277777777777747E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="7"/>
+        <v>-4.8333333333335005E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="7"/>
+        <v>0.11722222222222001</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="7"/>
+        <v>7.6111111111110019E-2</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="7"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="8"/>
+        <v>2.8666666666665508E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="7"/>
+        <v>2.8472222222222565E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="7"/>
+        <v>4.097222222222241E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="7"/>
+        <v>6.2499999999999778E-3</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="7"/>
+        <v>-2.9861111111110006E-2</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="7"/>
+        <v>8.1250000000000044E-2</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="7"/>
+        <v>-9.9305555555554981E-2</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="8"/>
+        <v>2.5416666666666997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+      <c r="B25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="4">
+        <f>AVERAGE(C20:C24)</f>
+        <v>1.5638888888888536E-2</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:H25" si="9">AVERAGE(D20:D24)</f>
+        <v>2.1972222222222459E-2</v>
+      </c>
+      <c r="E25" s="4">
+        <f>AVERAGE(E20:E24)</f>
+        <v>-4.4972222222222968E-2</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" ref="F25:I25" si="10">AVERAGE(F20:F24)</f>
+        <v>3.119444444444399E-2</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="10"/>
+        <v>4.8111111111110993E-2</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="10"/>
+        <v>-4.6861111111110999E-2</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="10"/>
+        <v>1.4388888888888601E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A20:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
